--- a/配置文件/quartz计划排布任务.xlsx
+++ b/配置文件/quartz计划排布任务.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -427,10 +427,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -731,23 +731,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
     </row>
     <row r="2" spans="1:69" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D2" s="1" t="s">
@@ -973,184 +973,184 @@
       <c r="H3" s="1">
         <v>55</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AL3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AN3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AO3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AQ3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AR3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AS3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AT3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AU3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AV3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AW3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AX3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AY3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AZ3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="BA3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="BB3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="BC3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="BD3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="BE3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="BF3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="BG3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="BH3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="BI3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="BJ3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="BK3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="BL3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="BM3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="BN3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="BO3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="BP3" s="4" t="s">
+      <c r="I3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AZ3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BE3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BF3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BG3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BH3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BJ3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BK3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BL3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BM3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BN3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BO3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BP3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1178,91 +1178,91 @@
       <c r="H4" s="1">
         <v>10</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
-      <c r="U4" s="4" t="s">
+      <c r="U4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="4" t="s">
+      <c r="Y4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
-      <c r="AC4" s="4" t="s">
+      <c r="AC4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
-      <c r="AG4" s="4" t="s">
+      <c r="AG4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
-      <c r="AK4" s="4" t="s">
+      <c r="AK4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" s="2"/>
-      <c r="AO4" s="4" t="s">
+      <c r="AO4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2"/>
       <c r="AR4" s="2"/>
-      <c r="AS4" s="4" t="s">
+      <c r="AS4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AT4" s="2"/>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2"/>
-      <c r="AW4" s="4" t="s">
+      <c r="AW4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AX4" s="2"/>
       <c r="AY4" s="2"/>
       <c r="AZ4" s="2"/>
-      <c r="BA4" s="4" t="s">
+      <c r="BA4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="BB4" s="2"/>
       <c r="BC4" s="2"/>
       <c r="BD4" s="2"/>
-      <c r="BE4" s="4" t="s">
+      <c r="BE4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="BF4" s="2"/>
       <c r="BG4" s="2"/>
       <c r="BH4" s="2"/>
-      <c r="BI4" s="4" t="s">
+      <c r="BI4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="BJ4" s="2"/>
       <c r="BK4" s="2"/>
       <c r="BL4" s="2"/>
-      <c r="BM4" s="4" t="s">
+      <c r="BM4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="BN4" s="2"/>
@@ -1294,63 +1294,63 @@
         <v>10</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="4"/>
+      <c r="J5" s="3"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="4"/>
+      <c r="N5" s="3"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
-      <c r="R5" s="4"/>
+      <c r="R5" s="3"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
-      <c r="V5" s="4"/>
+      <c r="V5" s="3"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
-      <c r="Z5" s="4"/>
+      <c r="Z5" s="3"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
-      <c r="AD5" s="4"/>
+      <c r="AD5" s="3"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
-      <c r="AH5" s="4"/>
+      <c r="AH5" s="3"/>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
       <c r="AK5" s="2"/>
-      <c r="AL5" s="4"/>
+      <c r="AL5" s="3"/>
       <c r="AM5" s="2"/>
       <c r="AN5" s="2"/>
       <c r="AO5" s="2"/>
-      <c r="AP5" s="4"/>
+      <c r="AP5" s="3"/>
       <c r="AQ5" s="2"/>
       <c r="AR5" s="2"/>
       <c r="AS5" s="2"/>
-      <c r="AT5" s="4"/>
+      <c r="AT5" s="3"/>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
-      <c r="AX5" s="4"/>
+      <c r="AX5" s="3"/>
       <c r="AY5" s="2"/>
       <c r="AZ5" s="2"/>
       <c r="BA5" s="2"/>
-      <c r="BB5" s="4"/>
+      <c r="BB5" s="3"/>
       <c r="BC5" s="2"/>
       <c r="BD5" s="2"/>
       <c r="BE5" s="2"/>
-      <c r="BF5" s="4"/>
+      <c r="BF5" s="3"/>
       <c r="BG5" s="2"/>
       <c r="BH5" s="2"/>
       <c r="BI5" s="2"/>
-      <c r="BJ5" s="4"/>
+      <c r="BJ5" s="3"/>
       <c r="BK5" s="2"/>
       <c r="BL5" s="2"/>
       <c r="BM5" s="2"/>
-      <c r="BN5" s="4"/>
+      <c r="BN5" s="3"/>
       <c r="BO5" s="2"/>
       <c r="BP5" s="2"/>
     </row>
@@ -1380,63 +1380,63 @@
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="4"/>
+      <c r="K6" s="3"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="4"/>
+      <c r="O6" s="3"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
-      <c r="S6" s="4"/>
+      <c r="S6" s="3"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
-      <c r="W6" s="4"/>
+      <c r="W6" s="3"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="4"/>
+      <c r="AA6" s="3"/>
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
-      <c r="AE6" s="4"/>
+      <c r="AE6" s="3"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
-      <c r="AI6" s="4"/>
+      <c r="AI6" s="3"/>
       <c r="AJ6" s="2"/>
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
-      <c r="AM6" s="4"/>
+      <c r="AM6" s="3"/>
       <c r="AN6" s="2"/>
       <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
-      <c r="AQ6" s="4"/>
+      <c r="AQ6" s="3"/>
       <c r="AR6" s="2"/>
       <c r="AS6" s="2"/>
       <c r="AT6" s="2"/>
-      <c r="AU6" s="4"/>
+      <c r="AU6" s="3"/>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
       <c r="AX6" s="2"/>
-      <c r="AY6" s="4"/>
+      <c r="AY6" s="3"/>
       <c r="AZ6" s="2"/>
       <c r="BA6" s="2"/>
       <c r="BB6" s="2"/>
-      <c r="BC6" s="4"/>
+      <c r="BC6" s="3"/>
       <c r="BD6" s="2"/>
       <c r="BE6" s="2"/>
       <c r="BF6" s="2"/>
-      <c r="BG6" s="4"/>
+      <c r="BG6" s="3"/>
       <c r="BH6" s="2"/>
       <c r="BI6" s="2"/>
       <c r="BJ6" s="2"/>
-      <c r="BK6" s="4"/>
+      <c r="BK6" s="3"/>
       <c r="BL6" s="2"/>
       <c r="BM6" s="2"/>
       <c r="BN6" s="2"/>
-      <c r="BO6" s="4"/>
+      <c r="BO6" s="3"/>
       <c r="BP6" s="2"/>
     </row>
     <row r="7" spans="1:69" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -1466,63 +1466,63 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="4"/>
+      <c r="L7" s="3"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="4"/>
+      <c r="P7" s="3"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
-      <c r="T7" s="4"/>
+      <c r="T7" s="3"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
-      <c r="X7" s="4"/>
+      <c r="X7" s="3"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
-      <c r="AB7" s="4"/>
+      <c r="AB7" s="3"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
-      <c r="AF7" s="4"/>
+      <c r="AF7" s="3"/>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
-      <c r="AJ7" s="4"/>
+      <c r="AJ7" s="3"/>
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
-      <c r="AN7" s="4"/>
+      <c r="AN7" s="3"/>
       <c r="AO7" s="2"/>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2"/>
-      <c r="AR7" s="4"/>
+      <c r="AR7" s="3"/>
       <c r="AS7" s="2"/>
       <c r="AT7" s="2"/>
       <c r="AU7" s="2"/>
-      <c r="AV7" s="4"/>
+      <c r="AV7" s="3"/>
       <c r="AW7" s="2"/>
       <c r="AX7" s="2"/>
       <c r="AY7" s="2"/>
-      <c r="AZ7" s="4"/>
+      <c r="AZ7" s="3"/>
       <c r="BA7" s="2"/>
       <c r="BB7" s="2"/>
       <c r="BC7" s="2"/>
-      <c r="BD7" s="4"/>
+      <c r="BD7" s="3"/>
       <c r="BE7" s="2"/>
       <c r="BF7" s="2"/>
       <c r="BG7" s="2"/>
-      <c r="BH7" s="4"/>
+      <c r="BH7" s="3"/>
       <c r="BI7" s="2"/>
       <c r="BJ7" s="2"/>
       <c r="BK7" s="2"/>
-      <c r="BL7" s="4"/>
+      <c r="BL7" s="3"/>
       <c r="BM7" s="2"/>
       <c r="BN7" s="2"/>
       <c r="BO7" s="2"/>
-      <c r="BP7" s="4"/>
+      <c r="BP7" s="3"/>
     </row>
     <row r="8" spans="1:69" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I8" s="2"/>
@@ -1611,123 +1611,123 @@
         <v>20</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K9" s="2"/>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M9" s="2"/>
-      <c r="N9" s="4" t="s">
+      <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O9" s="2"/>
-      <c r="P9" s="4" t="s">
+      <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q9" s="2"/>
-      <c r="R9" s="4" t="s">
+      <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S9" s="2"/>
-      <c r="T9" s="4" t="s">
+      <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U9" s="2"/>
-      <c r="V9" s="4" t="s">
+      <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W9" s="2"/>
-      <c r="X9" s="4" t="s">
+      <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y9" s="2"/>
-      <c r="Z9" s="4" t="s">
+      <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AA9" s="2"/>
-      <c r="AB9" s="4" t="s">
+      <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AC9" s="2"/>
-      <c r="AD9" s="4" t="s">
+      <c r="AD9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AE9" s="2"/>
-      <c r="AF9" s="4" t="s">
+      <c r="AF9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AG9" s="2"/>
-      <c r="AH9" s="4" t="s">
+      <c r="AH9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AI9" s="2"/>
-      <c r="AJ9" s="4" t="s">
+      <c r="AJ9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AK9" s="2"/>
-      <c r="AL9" s="4" t="s">
+      <c r="AL9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AM9" s="2"/>
-      <c r="AN9" s="4" t="s">
+      <c r="AN9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AO9" s="2"/>
-      <c r="AP9" s="4" t="s">
+      <c r="AP9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AQ9" s="2"/>
-      <c r="AR9" s="4" t="s">
+      <c r="AR9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AS9" s="2"/>
-      <c r="AT9" s="4" t="s">
+      <c r="AT9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AU9" s="2"/>
-      <c r="AV9" s="4" t="s">
+      <c r="AV9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AW9" s="2"/>
-      <c r="AX9" s="4" t="s">
+      <c r="AX9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AY9" s="2"/>
-      <c r="AZ9" s="4" t="s">
+      <c r="AZ9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="BA9" s="2"/>
-      <c r="BB9" s="4" t="s">
+      <c r="BB9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="BC9" s="2"/>
-      <c r="BD9" s="4" t="s">
+      <c r="BD9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="BE9" s="2"/>
-      <c r="BF9" s="4" t="s">
+      <c r="BF9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="BG9" s="2"/>
-      <c r="BH9" s="4" t="s">
+      <c r="BH9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="BI9" s="2"/>
-      <c r="BJ9" s="4" t="s">
+      <c r="BJ9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="BK9" s="2"/>
-      <c r="BL9" s="4" t="s">
+      <c r="BL9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="BM9" s="2"/>
-      <c r="BN9" s="4" t="s">
+      <c r="BN9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="BO9" s="2"/>
-      <c r="BP9" s="4" t="s">
+      <c r="BP9" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1755,123 +1755,123 @@
       <c r="H10" s="1">
         <v>20</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J10" s="2"/>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L10" s="2"/>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N10" s="2"/>
-      <c r="O10" s="4" t="s">
+      <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P10" s="2"/>
-      <c r="Q10" s="4" t="s">
+      <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R10" s="2"/>
-      <c r="S10" s="4" t="s">
+      <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T10" s="2"/>
-      <c r="U10" s="4" t="s">
+      <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V10" s="2"/>
-      <c r="W10" s="4" t="s">
+      <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="X10" s="2"/>
-      <c r="Y10" s="4" t="s">
+      <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="4" t="s">
+      <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AB10" s="2"/>
-      <c r="AC10" s="4" t="s">
+      <c r="AC10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AD10" s="2"/>
-      <c r="AE10" s="4" t="s">
+      <c r="AE10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AF10" s="2"/>
-      <c r="AG10" s="4" t="s">
+      <c r="AG10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AH10" s="2"/>
-      <c r="AI10" s="4" t="s">
+      <c r="AI10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AJ10" s="2"/>
-      <c r="AK10" s="4" t="s">
+      <c r="AK10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AL10" s="2"/>
-      <c r="AM10" s="4" t="s">
+      <c r="AM10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AN10" s="2"/>
-      <c r="AO10" s="4" t="s">
+      <c r="AO10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AP10" s="2"/>
-      <c r="AQ10" s="4" t="s">
+      <c r="AQ10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AR10" s="2"/>
-      <c r="AS10" s="4" t="s">
+      <c r="AS10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AT10" s="2"/>
-      <c r="AU10" s="4" t="s">
+      <c r="AU10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AV10" s="2"/>
-      <c r="AW10" s="4" t="s">
+      <c r="AW10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AX10" s="2"/>
-      <c r="AY10" s="4" t="s">
+      <c r="AY10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AZ10" s="2"/>
-      <c r="BA10" s="4" t="s">
+      <c r="BA10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="BB10" s="2"/>
-      <c r="BC10" s="4" t="s">
+      <c r="BC10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="BD10" s="2"/>
-      <c r="BE10" s="4" t="s">
+      <c r="BE10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="BF10" s="2"/>
-      <c r="BG10" s="4" t="s">
+      <c r="BG10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="BH10" s="2"/>
-      <c r="BI10" s="4" t="s">
+      <c r="BI10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="BJ10" s="2"/>
-      <c r="BK10" s="4" t="s">
+      <c r="BK10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="BL10" s="2"/>
-      <c r="BM10" s="4" t="s">
+      <c r="BM10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="BN10" s="2"/>
-      <c r="BO10" s="4" t="s">
+      <c r="BO10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="BP10" s="2"/>
@@ -1962,91 +1962,91 @@
       <c r="H12" s="1">
         <v>30</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="4" t="s">
+      <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="4" t="s">
+      <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
-      <c r="U12" s="4" t="s">
+      <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="4" t="s">
+      <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
-      <c r="AC12" s="4" t="s">
+      <c r="AC12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
-      <c r="AG12" s="4" t="s">
+      <c r="AG12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
       <c r="AJ12" s="2"/>
-      <c r="AK12" s="4" t="s">
+      <c r="AK12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" s="2"/>
-      <c r="AO12" s="4" t="s">
+      <c r="AO12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2"/>
       <c r="AR12" s="2"/>
-      <c r="AS12" s="4" t="s">
+      <c r="AS12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AT12" s="2"/>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
-      <c r="AW12" s="4" t="s">
+      <c r="AW12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AX12" s="2"/>
       <c r="AY12" s="2"/>
       <c r="AZ12" s="2"/>
-      <c r="BA12" s="4" t="s">
+      <c r="BA12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="BB12" s="2"/>
       <c r="BC12" s="2"/>
       <c r="BD12" s="2"/>
-      <c r="BE12" s="4" t="s">
+      <c r="BE12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="BF12" s="2"/>
       <c r="BG12" s="2"/>
       <c r="BH12" s="2"/>
-      <c r="BI12" s="4" t="s">
+      <c r="BI12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="BJ12" s="2"/>
       <c r="BK12" s="2"/>
       <c r="BL12" s="2"/>
-      <c r="BM12" s="4" t="s">
+      <c r="BM12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="BN12" s="2"/>
@@ -2079,63 +2079,63 @@
         <v>30</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="4"/>
+      <c r="J13" s="3"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="4"/>
+      <c r="N13" s="3"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
-      <c r="R13" s="4"/>
+      <c r="R13" s="3"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
-      <c r="V13" s="4"/>
+      <c r="V13" s="3"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
-      <c r="Z13" s="4"/>
+      <c r="Z13" s="3"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
-      <c r="AD13" s="4"/>
+      <c r="AD13" s="3"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
-      <c r="AH13" s="4"/>
+      <c r="AH13" s="3"/>
       <c r="AI13" s="2"/>
       <c r="AJ13" s="2"/>
       <c r="AK13" s="2"/>
-      <c r="AL13" s="4"/>
+      <c r="AL13" s="3"/>
       <c r="AM13" s="2"/>
       <c r="AN13" s="2"/>
       <c r="AO13" s="2"/>
-      <c r="AP13" s="4"/>
+      <c r="AP13" s="3"/>
       <c r="AQ13" s="2"/>
       <c r="AR13" s="2"/>
       <c r="AS13" s="2"/>
-      <c r="AT13" s="4"/>
+      <c r="AT13" s="3"/>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
       <c r="AW13" s="2"/>
-      <c r="AX13" s="4"/>
+      <c r="AX13" s="3"/>
       <c r="AY13" s="2"/>
       <c r="AZ13" s="2"/>
       <c r="BA13" s="2"/>
-      <c r="BB13" s="4"/>
+      <c r="BB13" s="3"/>
       <c r="BC13" s="2"/>
       <c r="BD13" s="2"/>
       <c r="BE13" s="2"/>
-      <c r="BF13" s="4"/>
+      <c r="BF13" s="3"/>
       <c r="BG13" s="2"/>
       <c r="BH13" s="2"/>
       <c r="BI13" s="2"/>
-      <c r="BJ13" s="4"/>
+      <c r="BJ13" s="3"/>
       <c r="BK13" s="2"/>
       <c r="BL13" s="2"/>
       <c r="BM13" s="2"/>
-      <c r="BN13" s="4"/>
+      <c r="BN13" s="3"/>
       <c r="BO13" s="2"/>
       <c r="BP13" s="2"/>
       <c r="BQ13" s="2"/>
@@ -2166,63 +2166,63 @@
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="4"/>
+      <c r="K14" s="3"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
-      <c r="O14" s="4"/>
+      <c r="O14" s="3"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
-      <c r="S14" s="4"/>
+      <c r="S14" s="3"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
-      <c r="W14" s="4"/>
+      <c r="W14" s="3"/>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
-      <c r="AA14" s="4"/>
+      <c r="AA14" s="3"/>
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
-      <c r="AE14" s="4"/>
+      <c r="AE14" s="3"/>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
-      <c r="AI14" s="4"/>
+      <c r="AI14" s="3"/>
       <c r="AJ14" s="2"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
-      <c r="AM14" s="4"/>
+      <c r="AM14" s="3"/>
       <c r="AN14" s="2"/>
       <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
-      <c r="AQ14" s="4"/>
+      <c r="AQ14" s="3"/>
       <c r="AR14" s="2"/>
       <c r="AS14" s="2"/>
       <c r="AT14" s="2"/>
-      <c r="AU14" s="4"/>
+      <c r="AU14" s="3"/>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2"/>
       <c r="AX14" s="2"/>
-      <c r="AY14" s="4"/>
+      <c r="AY14" s="3"/>
       <c r="AZ14" s="2"/>
       <c r="BA14" s="2"/>
       <c r="BB14" s="2"/>
-      <c r="BC14" s="4"/>
+      <c r="BC14" s="3"/>
       <c r="BD14" s="2"/>
       <c r="BE14" s="2"/>
       <c r="BF14" s="2"/>
-      <c r="BG14" s="4"/>
+      <c r="BG14" s="3"/>
       <c r="BH14" s="2"/>
       <c r="BI14" s="2"/>
       <c r="BJ14" s="2"/>
-      <c r="BK14" s="4"/>
+      <c r="BK14" s="3"/>
       <c r="BL14" s="2"/>
       <c r="BM14" s="2"/>
       <c r="BN14" s="2"/>
-      <c r="BO14" s="4"/>
+      <c r="BO14" s="3"/>
       <c r="BP14" s="2"/>
     </row>
     <row r="15" spans="1:69" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -2252,63 +2252,63 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="4"/>
+      <c r="L15" s="3"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="4"/>
+      <c r="P15" s="3"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
-      <c r="T15" s="4"/>
+      <c r="T15" s="3"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
-      <c r="X15" s="4"/>
+      <c r="X15" s="3"/>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
-      <c r="AB15" s="4"/>
+      <c r="AB15" s="3"/>
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
-      <c r="AF15" s="4"/>
+      <c r="AF15" s="3"/>
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
-      <c r="AJ15" s="4"/>
+      <c r="AJ15" s="3"/>
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
-      <c r="AN15" s="4"/>
+      <c r="AN15" s="3"/>
       <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2"/>
-      <c r="AR15" s="4"/>
+      <c r="AR15" s="3"/>
       <c r="AS15" s="2"/>
       <c r="AT15" s="2"/>
       <c r="AU15" s="2"/>
-      <c r="AV15" s="4"/>
+      <c r="AV15" s="3"/>
       <c r="AW15" s="2"/>
       <c r="AX15" s="2"/>
       <c r="AY15" s="2"/>
-      <c r="AZ15" s="4"/>
+      <c r="AZ15" s="3"/>
       <c r="BA15" s="2"/>
       <c r="BB15" s="2"/>
       <c r="BC15" s="2"/>
-      <c r="BD15" s="4"/>
+      <c r="BD15" s="3"/>
       <c r="BE15" s="2"/>
       <c r="BF15" s="2"/>
       <c r="BG15" s="2"/>
-      <c r="BH15" s="4"/>
+      <c r="BH15" s="3"/>
       <c r="BI15" s="2"/>
       <c r="BJ15" s="2"/>
       <c r="BK15" s="2"/>
-      <c r="BL15" s="4"/>
+      <c r="BL15" s="3"/>
       <c r="BM15" s="2"/>
       <c r="BN15" s="2"/>
       <c r="BO15" s="2"/>
-      <c r="BP15" s="4"/>
+      <c r="BP15" s="3"/>
     </row>
     <row r="16" spans="1:69" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I16" s="2"/>
@@ -2397,123 +2397,123 @@
         <v>45</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K17" s="2"/>
-      <c r="L17" s="4" t="s">
+      <c r="L17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M17" s="2"/>
-      <c r="N17" s="4" t="s">
+      <c r="N17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O17" s="2"/>
-      <c r="P17" s="4" t="s">
+      <c r="P17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q17" s="2"/>
-      <c r="R17" s="4" t="s">
+      <c r="R17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S17" s="2"/>
-      <c r="T17" s="4" t="s">
+      <c r="T17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U17" s="2"/>
-      <c r="V17" s="4" t="s">
+      <c r="V17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W17" s="2"/>
-      <c r="X17" s="4" t="s">
+      <c r="X17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y17" s="2"/>
-      <c r="Z17" s="4" t="s">
+      <c r="Z17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AA17" s="2"/>
-      <c r="AB17" s="4" t="s">
+      <c r="AB17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AC17" s="2"/>
-      <c r="AD17" s="4" t="s">
+      <c r="AD17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AE17" s="2"/>
-      <c r="AF17" s="4" t="s">
+      <c r="AF17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AG17" s="2"/>
-      <c r="AH17" s="4" t="s">
+      <c r="AH17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AI17" s="2"/>
-      <c r="AJ17" s="4" t="s">
+      <c r="AJ17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AK17" s="2"/>
-      <c r="AL17" s="4" t="s">
+      <c r="AL17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AM17" s="2"/>
-      <c r="AN17" s="4" t="s">
+      <c r="AN17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AO17" s="2"/>
-      <c r="AP17" s="4" t="s">
+      <c r="AP17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AQ17" s="2"/>
-      <c r="AR17" s="4" t="s">
+      <c r="AR17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AS17" s="2"/>
-      <c r="AT17" s="4" t="s">
+      <c r="AT17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AU17" s="2"/>
-      <c r="AV17" s="4" t="s">
+      <c r="AV17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AW17" s="2"/>
-      <c r="AX17" s="4" t="s">
+      <c r="AX17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AY17" s="2"/>
-      <c r="AZ17" s="4" t="s">
+      <c r="AZ17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="BA17" s="2"/>
-      <c r="BB17" s="4" t="s">
+      <c r="BB17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="BC17" s="2"/>
-      <c r="BD17" s="4" t="s">
+      <c r="BD17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="BE17" s="2"/>
-      <c r="BF17" s="4" t="s">
+      <c r="BF17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="BG17" s="2"/>
-      <c r="BH17" s="4" t="s">
+      <c r="BH17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="BI17" s="2"/>
-      <c r="BJ17" s="4" t="s">
+      <c r="BJ17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="BK17" s="2"/>
-      <c r="BL17" s="4" t="s">
+      <c r="BL17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="BM17" s="2"/>
-      <c r="BN17" s="4" t="s">
+      <c r="BN17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="BO17" s="2"/>
-      <c r="BP17" s="4" t="s">
+      <c r="BP17" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2592,7 +2592,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="4"/>
+      <c r="L19" s="3"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2725,7 +2725,7 @@
       <c r="C21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I21" s="4"/>
+      <c r="I21" s="3"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -3056,7 +3056,7 @@
       <c r="C26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I26" s="4"/>
+      <c r="I26" s="3"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
